--- a/biology/Médecine/Centre_hospitalier_Barthélemy-Durand/Centre_hospitalier_Barthélemy-Durand.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Barthélemy-Durand/Centre_hospitalier_Barthélemy-Durand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Barth%C3%A9lemy-Durand</t>
+          <t>Centre_hospitalier_Barthélemy-Durand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier Barthélémy Durand, ou EPS Barthélémy Durand, est un établissement public de santé spécialisé français, situé sur le territoire des communes de Sainte-Geneviève-des-Bois / Épinay-sur-Orge et d'Étampes dans le département de l'Essonne en région Île-de-France.  
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Barth%C3%A9lemy-Durand</t>
+          <t>Centre_hospitalier_Barthélemy-Durand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1950, le département de Seine-et-Oise lance un projet de création de trois hôpitaux psychiatriques, afin de désemplir l’hôpital de Clermont-de-l’Oise : le centre psychothérapique Barthélemy Durand à Étampes, le centre hospitalier Jean-Martin Charcot à Plaisir et l’hôpital des Mureaux, dans les Yvelines[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1950, le département de Seine-et-Oise lance un projet de création de trois hôpitaux psychiatriques, afin de désemplir l’hôpital de Clermont-de-l’Oise : le centre psychothérapique Barthélemy Durand à Étampes, le centre hospitalier Jean-Martin Charcot à Plaisir et l’hôpital des Mureaux, dans les Yvelines.  
 Le 1er avril 1963, le centre psychothérapique Barthélemy Durand ouvre ses portes sur la commune d'Étampes, en Seine-et-Oise, avec trois services pour adultes et une unité d’hospitalisation de pédopsychiatrie. Une capacité d’hospitalisation de 775 lits était prévue dès l'ouverture.  
 En 1974, le centre hospitalier inaugure son site des Mares-Yvon, sur la commune de Sainte-Geneviève-des-Bois, dans l'Essonne.  
 En 1977, le centre psychothérapique devient le Centre hospitalier spécialisé Barthélemy Durand.  
-Le 15 mai 2019, le centre hospitalier inaugure sur son site d'Étampes, une nouvelle unité d’hospitalisation nommée « Séglas » qui traite les patients atteints de problèmes psychiatriques[2].  
+Le 15 mai 2019, le centre hospitalier inaugure sur son site d'Étampes, une nouvelle unité d’hospitalisation nommée « Séglas » qui traite les patients atteints de problèmes psychiatriques.  
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Barth%C3%A9lemy-Durand</t>
+          <t>Centre_hospitalier_Barthélemy-Durand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Site d'Étampes
-Le site historique de 80 hectares de l'hôpital situé à Étampes est desservis par la ligne C du RER et les trains régionaux TER via la gare d'Étampes située en contrebas. La ligne de bus 91.07 du réseau de bus Essonne Sud Ouest reliant Étampes à Dourdan dessert le site. 
-Sites de Sainte-Geneviève-des-Bois
-Les sites de Sainte-Geneviève-des-Bois, Mares-Yvon et Perray-Vaucluse sont desservis par la ligne C du RER via la gare de Sainte-Geneviève-des-Bois, notamment face à l'entrée du site de Perray-Vaucluse.
+          <t>Site d'Étampes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site historique de 80 hectares de l'hôpital situé à Étampes est desservis par la ligne C du RER et les trains régionaux TER via la gare d'Étampes située en contrebas. La ligne de bus 91.07 du réseau de bus Essonne Sud Ouest reliant Étampes à Dourdan dessert le site. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Barthélemy-Durand</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Barth%C3%A9lemy-Durand</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sites de Sainte-Geneviève-des-Bois</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites de Sainte-Geneviève-des-Bois, Mares-Yvon et Perray-Vaucluse sont desservis par la ligne C du RER via la gare de Sainte-Geneviève-des-Bois, notamment face à l'entrée du site de Perray-Vaucluse.
 </t>
         </is>
       </c>
